--- a/tables/Projets.xlsx
+++ b/tables/Projets.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fabio/Documents/Personal/MdC/Poste-ENSGSI/tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EA71DE6-1214-BB47-B60C-08267B04E94F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB6EBB16-9CD8-104B-BD9B-30FD981B7CD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25600" yWindow="500" windowWidth="25600" windowHeight="28300" xr2:uid="{8BF84A60-ED26-7243-AAAF-D5A16B329311}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19220" xr2:uid="{8BF84A60-ED26-7243-AAAF-D5A16B329311}"/>
   </bookViews>
   <sheets>
     <sheet name="Projets" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="55">
   <si>
     <t>Dates</t>
   </si>
@@ -49,18 +49,12 @@
     <t>Budget</t>
   </si>
   <si>
-    <t>Details</t>
-  </si>
-  <si>
     <t>Transnational Academy of Social Innovation for Climate Action</t>
   </si>
   <si>
     <t>Erasmus+ KA220-HED - Cooperation partnerships in higher education.</t>
   </si>
   <si>
-    <t>Le projet répond à la priorité de l'enseignement supérieur "Promouvoir des systèmes d'enseignement supérieur interconnectés" grâce à la structure de l'Académie, un réseau transnational de parties prenantes favorisant l'échange de compétences, d'expériences et de connaissances</t>
-  </si>
-  <si>
     <t>INEDIT (Open Innovation Ecosystems for Do It Together process)</t>
   </si>
   <si>
@@ -70,9 +64,6 @@
     <t>ClimateLabs</t>
   </si>
   <si>
-    <t xml:space="preserve"> Renforcement des capacités de recherche appliquée et d'innovation de dix universités partenaires du Mexique, du Brésil et de la Colombie par la conception et la mise en œuvre de laboratoires d'innovation sociale pour l'atténuation et l'adaptation au changement climatique.</t>
-  </si>
-  <si>
     <t>14 000 €.</t>
   </si>
   <si>
@@ -127,9 +118,6 @@
     <t>Développer une méthodologie générique permettant d’évaluer les services écosystémiques rendus par des activités industrielles fonctionnant en circuit court afin d’améliorer la prise de décisions des acteurs industriels et du secteur public. Validation sur le cas d’une filière de recyclage du plastique en circuit court.</t>
   </si>
   <si>
-    <t>INEDIT entend contribuer, à travers la mobilisation d’une double plate-forme - numérique et physique – à renforcer le potentiel d’innovation des PMEs autour de la fabrication sociale.</t>
-  </si>
-  <si>
     <t>Role</t>
   </si>
   <si>
@@ -139,9 +127,6 @@
     <t xml:space="preserve">Participation au montage et à la coordination de du ERPI </t>
   </si>
   <si>
-    <t>Participation au montage et à la coordination:</t>
-  </si>
-  <si>
     <t>Creating Innovation and entrepreneurship ecosystems (U4BUSINESS)</t>
   </si>
   <si>
@@ -151,22 +136,70 @@
     <t>Execution du projet</t>
   </si>
   <si>
-    <t>Participation au montage et execution des taches tecjniques</t>
-  </si>
-  <si>
-    <t>Participation au montage et à la coordination du  task 6.4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Participation au montage et à la coordination de Task 1.1 et Task 2.2 </t>
-  </si>
-  <si>
     <t>60 k€</t>
   </si>
   <si>
-    <t>900 k€ (dont 72 k€ pour ERPI)</t>
-  </si>
-  <si>
     <t>Network to build and strengthen capacities in Climate Action through joint cocurricular programs, knowledge sharing and cooperation (LATAM-EU-CAN)</t>
+  </si>
+  <si>
+    <t>ERC - Starting Grant</t>
+  </si>
+  <si>
+    <t>Conception systémique de recyclage distribuée via l'open hardware</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1.4 M€</t>
+  </si>
+  <si>
+    <t>Participation au montage et à la pilote scientifique</t>
+  </si>
+  <si>
+    <t>Participation au montage et task leader de T6.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Participation au montage et project manager de l'UL pour la T1.1 et T2.2 </t>
+  </si>
+  <si>
+    <t>Participation au montage et execution des taches techniques</t>
+  </si>
+  <si>
+    <t>But du projet</t>
+  </si>
+  <si>
+    <t>Générer des écosystèmes d'innovation et d'entrepreneuriat en établissant un contact plus fort et plus étroit entre les universités latino-américaines,</t>
+  </si>
+  <si>
+    <t>Promouvoir des systèmes d'enseignement supérieur interconnectés  grâce à la structure de l'Académie, un réseau transnational de parties prenantes favorisant l'échange de compétences, d'expériences et de connaissances</t>
+  </si>
+  <si>
+    <t>Contribuer, à travers la mobilisation d’une double plate-forme - numérique et physique – à renforcer le potentiel d’innovation des PMEs autour de la fabrication sociale.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Renforcement des capacités de recherche appliquée et d'innovation de dix universités partenaires du Mexique, du Brésil et de la Colombie par la conception et la mise en œuvre de laboratoires d'innovation sociale pour le changement climatique.</t>
+  </si>
+  <si>
+    <t>Renforcer les connaissances et les capacités des EES de Colombie et du Chili afin de développer conjointement des programmes d'enseignement dans le domaine de l'action climatique par le biais du partage des connaissances et de la coopération.</t>
+  </si>
+  <si>
+    <t>Erasmus +</t>
+  </si>
+  <si>
+    <t xml:space="preserve">European Research Council </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 787 511 (dont 112 K€ ERPI)</t>
+  </si>
+  <si>
+    <t>900 k€ (dont 72 k€ ERPI)</t>
+  </si>
+  <si>
+    <t>ICEEL Carnot</t>
+  </si>
+  <si>
+    <t>Participation au montage (Soumis)</t>
+  </si>
+  <si>
+    <t>Porteur du projet (Soumis)</t>
   </si>
 </sst>
 </file>
@@ -530,10 +563,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2651365A-7D8C-954B-A69A-702ED2EF6AFC}">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="150" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -561,10 +594,10 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>4</v>
+        <v>42</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="102" x14ac:dyDescent="0.2">
@@ -572,7 +605,19 @@
         <v>2023</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>43</v>
+        <v>34</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="51" x14ac:dyDescent="0.2">
@@ -580,147 +625,179 @@
         <v>2023</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="119" x14ac:dyDescent="0.2">
+        <v>51</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>2022</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>6</v>
+        <v>49</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>7</v>
+        <v>36</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>33</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="102" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
+        <v>2022</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="102" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
         <v>2021</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="85" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="68" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="85" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F7" s="1" t="s">
+      <c r="E8" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F8" s="1" t="s">
         <v>40</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="51" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>14</v>
-      </c>
       <c r="C9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="B10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="F10" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="68" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F9" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="68" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>37</v>
+      <c r="E11" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/tables/Projets.xlsx
+++ b/tables/Projets.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fabio/Documents/Personal/MdC/Poste-ENSGSI/tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB6EBB16-9CD8-104B-BD9B-30FD981B7CD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E24340B7-7F33-3243-8A46-C6279776B4C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19220" xr2:uid="{8BF84A60-ED26-7243-AAAF-D5A16B329311}"/>
+    <workbookView xWindow="25600" yWindow="500" windowWidth="25600" windowHeight="28300" xr2:uid="{8BF84A60-ED26-7243-AAAF-D5A16B329311}"/>
   </bookViews>
   <sheets>
     <sheet name="Projets" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="64">
   <si>
     <t>Dates</t>
   </si>
@@ -58,9 +58,6 @@
     <t>INEDIT (Open Innovation Ecosystems for Do It Together process)</t>
   </si>
   <si>
-    <t>6,4 M€</t>
-  </si>
-  <si>
     <t>ClimateLabs</t>
   </si>
   <si>
@@ -88,18 +85,12 @@
     <t>2017 - 2018</t>
   </si>
   <si>
-    <t>Everest Bio</t>
-  </si>
-  <si>
     <t>2019 - 2020</t>
   </si>
   <si>
     <t>Plast’if</t>
   </si>
   <si>
-    <t>14 k€</t>
-  </si>
-  <si>
     <t xml:space="preserve">11 k€ </t>
   </si>
   <si>
@@ -130,15 +121,9 @@
     <t>Creating Innovation and entrepreneurship ecosystems (U4BUSINESS)</t>
   </si>
   <si>
-    <t>ERASMUS-LS</t>
-  </si>
-  <si>
     <t>Execution du projet</t>
   </si>
   <si>
-    <t>60 k€</t>
-  </si>
-  <si>
     <t>Network to build and strengthen capacities in Climate Action through joint cocurricular programs, knowledge sharing and cooperation (LATAM-EU-CAN)</t>
   </si>
   <si>
@@ -148,18 +133,9 @@
     <t>Conception systémique de recyclage distribuée via l'open hardware</t>
   </si>
   <si>
-    <t xml:space="preserve"> 1.4 M€</t>
-  </si>
-  <si>
-    <t>Participation au montage et à la pilote scientifique</t>
-  </si>
-  <si>
     <t>Participation au montage et task leader de T6.4</t>
   </si>
   <si>
-    <t xml:space="preserve">Participation au montage et project manager de l'UL pour la T1.1 et T2.2 </t>
-  </si>
-  <si>
     <t>Participation au montage et execution des taches techniques</t>
   </si>
   <si>
@@ -187,19 +163,70 @@
     <t xml:space="preserve">European Research Council </t>
   </si>
   <si>
-    <t xml:space="preserve"> 787 511 (dont 112 K€ ERPI)</t>
-  </si>
-  <si>
-    <t>900 k€ (dont 72 k€ ERPI)</t>
-  </si>
-  <si>
     <t>ICEEL Carnot</t>
   </si>
   <si>
-    <t>Participation au montage (Soumis)</t>
-  </si>
-  <si>
-    <t>Porteur du projet (Soumis)</t>
+    <t>Soumis Mars 2023</t>
+  </si>
+  <si>
+    <t>EU ERASMUS-LS</t>
+  </si>
+  <si>
+    <t>EU Erasmus +</t>
+  </si>
+  <si>
+    <t>Soumis Oct 2022</t>
+  </si>
+  <si>
+    <t>Porteur du projet</t>
+  </si>
+  <si>
+    <t>Participation au montage</t>
+  </si>
+  <si>
+    <t>Participation au montage et au Responsable scientifique</t>
+  </si>
+  <si>
+    <t>EU HORIZON-RIA</t>
+  </si>
+  <si>
+    <t>Soumis Fev2023</t>
+  </si>
+  <si>
+    <t>Local Accessible Urban Digital and Sustainable Factories (LAUDS): New European Bauhaus Approach to Open and Decentralised Urban Manufacturing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LAUDS factories est un concept innovant visant à créer de petites usines polyvalentes dans les zones locales et urbaines pour cocréer et produire des produits personnalisés en petites séries. Il cherche à intégrer des capacités de résilience innovantes et actives au niveau de la production et de la chaîne d'approvisionnement pour soutenir une transformation verte, circulaire et numérique. </t>
+  </si>
+  <si>
+    <t>Green Local 3D</t>
+  </si>
+  <si>
+    <t>ANR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">507 k€ (dont 163 k€ - ERPI) </t>
+  </si>
+  <si>
+    <t>50 k€ (dont 25 k€ -ERPI)</t>
+  </si>
+  <si>
+    <t>6,8 M€ (dont 545 k€ - ERPI)</t>
+  </si>
+  <si>
+    <t>956 k€ (dont 50 k€ --ENSGSI)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Participation au montage et project manager de l'UL pour la WP1.1 et WP2.2 </t>
+  </si>
+  <si>
+    <t>Le projet GreenLocal3D vise à développer une nouvelle solution distribuée (basée sur l'impression 3D) pour réutiliser localement les déchets thermoplastiques non valorisés par des entités de recollection de déchets.</t>
+  </si>
+  <si>
+    <t>Participation au projet WP1, WP2 + data manager</t>
+  </si>
+  <si>
+    <t>ÉValuation du rÉseau de REcyclage pour Soutenir la Transition vers une BIOéconomie (Everest Bio)</t>
   </si>
 </sst>
 </file>
@@ -215,7 +242,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -563,10 +589,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2651365A-7D8C-954B-A69A-702ED2EF6AFC}">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="150" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -574,7 +600,7 @@
     <col min="1" max="1" width="10.83203125" style="1"/>
     <col min="2" max="2" width="26.5" style="1" customWidth="1"/>
     <col min="3" max="3" width="14.33203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="10.83203125" style="1"/>
+    <col min="4" max="4" width="16.6640625" style="1" customWidth="1"/>
     <col min="5" max="5" width="50.33203125" style="1" customWidth="1"/>
     <col min="6" max="6" width="28.33203125" style="1" customWidth="1"/>
     <col min="7" max="16384" width="10.83203125" style="1"/>
@@ -594,75 +620,75 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="102" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="136" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>2023</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:6" ht="102" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>2023</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>51</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>36</v>
-      </c>
       <c r="F4" s="1" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="102" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>4</v>
@@ -671,133 +697,173 @@
         <v>5</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="102" x14ac:dyDescent="0.2">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
+        <v>2022</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="68" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <v>2022</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="102" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
         <v>2021</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="51" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="85" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="B8" s="1" t="s">
-        <v>8</v>
+        <v>63</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>20</v>
+        <v>57</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>21</v>
+        <v>58</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="85" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>9</v>
+        <v>59</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="68" x14ac:dyDescent="0.2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>25</v>
+      <c r="B11" s="2" t="s">
+        <v>17</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="D11" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E11" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>32</v>
+      <c r="B12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="68" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/tables/Projets.xlsx
+++ b/tables/Projets.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fabio/Documents/Personal/MdC/Poste-ENSGSI/tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E24340B7-7F33-3243-8A46-C6279776B4C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C65C7047-9F2D-564F-AAF6-34E330D63A39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="25600" yWindow="500" windowWidth="25600" windowHeight="28300" xr2:uid="{8BF84A60-ED26-7243-AAAF-D5A16B329311}"/>
   </bookViews>
@@ -115,9 +115,6 @@
     <t>Soumis Fev 2023</t>
   </si>
   <si>
-    <t xml:space="preserve">Participation au montage et à la coordination de du ERPI </t>
-  </si>
-  <si>
     <t>Creating Innovation and entrepreneurship ecosystems (U4BUSINESS)</t>
   </si>
   <si>
@@ -184,9 +181,6 @@
     <t>Participation au montage</t>
   </si>
   <si>
-    <t>Participation au montage et au Responsable scientifique</t>
-  </si>
-  <si>
     <t>EU HORIZON-RIA</t>
   </si>
   <si>
@@ -227,6 +221,12 @@
   </si>
   <si>
     <t>ÉValuation du rÉseau de REcyclage pour Soutenir la Transition vers une BIOéconomie (Everest Bio)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Participation au montage et à la coordination ERPI </t>
+  </si>
+  <si>
+    <t>Participation au montage et  Responsable scientifique</t>
   </si>
 </sst>
 </file>
@@ -591,8 +591,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2651365A-7D8C-954B-A69A-702ED2EF6AFC}">
   <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" topLeftCell="B5" zoomScale="150" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -620,7 +620,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>24</v>
@@ -631,19 +631,19 @@
         <v>2023</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="102" x14ac:dyDescent="0.2">
@@ -651,19 +651,19 @@
         <v>2023</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="51" x14ac:dyDescent="0.2">
@@ -671,19 +671,19 @@
         <v>2023</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>25</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="102" x14ac:dyDescent="0.2">
@@ -700,10 +700,10 @@
         <v>25</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>26</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="51" x14ac:dyDescent="0.2">
@@ -711,19 +711,19 @@
         <v>2022</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D6" s="1" t="s">
+      <c r="F6" s="1" t="s">
         <v>46</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="68" x14ac:dyDescent="0.2">
@@ -731,19 +731,19 @@
         <v>2022</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>56</v>
-      </c>
       <c r="E7" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="102" x14ac:dyDescent="0.2">
@@ -751,19 +751,19 @@
         <v>2021</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>23</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>49</v>
+        <v>63</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="51" x14ac:dyDescent="0.2">
@@ -777,13 +777,13 @@
         <v>13</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="85" x14ac:dyDescent="0.2">
@@ -794,16 +794,16 @@
         <v>7</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="51" x14ac:dyDescent="0.2">
@@ -823,7 +823,7 @@
         <v>20</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="51" x14ac:dyDescent="0.2">
@@ -843,7 +843,7 @@
         <v>11</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="68" x14ac:dyDescent="0.2">
@@ -863,7 +863,7 @@
         <v>21</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
